--- a/groupProject/matriks_korelasi_antar_variable_without_normalization.xlsx
+++ b/groupProject/matriks_korelasi_antar_variable_without_normalization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,13 +490,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3839,12 +3840,13 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
